--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mertdeveci/Downloads/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mertdeveci5/Downloads/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AC4C28-1A6F-1E4C-B77E-61D016D0B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9642546B-E281-3945-8885-ADEFD32D2BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{CB62781A-3A2E-4A98-AA87-EC77C7D83254}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{CB62781A-3A2E-4A98-AA87-EC77C7D83254}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -2461,7 +2461,7 @@
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{95905097-450D-43CC-8B84-FFE50FC731A2}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{8C1F27E7-8FA8-4AF5-BBE5-F32E44CE88BF}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="D12" s="71">
         <f ca="1">+TODAY()</f>
-        <v>45877</v>
+        <v>45859</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.15">
@@ -8225,7 +8225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF9F534-1102-491D-B6CC-E740579C97BE}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="9" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -15045,9 +15045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B49CBAC-A9E8-4B3E-BE0A-98CEBA7E3BBA}">
   <dimension ref="C1:AB124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA68" sqref="AA68"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
